--- a/ru/downloads/data-excel/5.5.1.xlsx
+++ b/ru/downloads/data-excel/5.5.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,9 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -270,10 +271,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,9 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -585,7 +588,7 @@
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -606,7 +609,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
+    <row r="2" spans="1:17" s="1" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -627,7 +630,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -643,7 +646,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -692,8 +695,11 @@
       <c r="P4" s="12">
         <v>2019</v>
       </c>
+      <c r="Q4" s="12">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -740,6 +746,9 @@
         <v>15.8</v>
       </c>
       <c r="P5" s="18">
+        <v>16.7</v>
+      </c>
+      <c r="Q5" s="18">
         <v>16.7</v>
       </c>
     </row>

--- a/ru/downloads/data-excel/5.5.1.xlsx
+++ b/ru/downloads/data-excel/5.5.1.xlsx
@@ -574,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:N13"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,7 +588,7 @@
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1">
+    <row r="2" spans="1:18" s="1" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -646,7 +646,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -698,8 +698,11 @@
       <c r="Q4" s="12">
         <v>2020</v>
       </c>
+      <c r="R4" s="12">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -750,6 +753,9 @@
       </c>
       <c r="Q5" s="18">
         <v>16.7</v>
+      </c>
+      <c r="R5" s="18">
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/5.5.1.xlsx
+++ b/ru/downloads/data-excel/5.5.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Наименование показателей</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Items</t>
   </si>
   <si>
-    <t>Парламенттеги аялдар ээлеген орундардын үлүшү</t>
-  </si>
-  <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
   <si>
@@ -60,6 +57,27 @@
   </si>
   <si>
     <t>5.5.1 Доля мест, занимаемых женщинами в национальных парламентах</t>
+  </si>
+  <si>
+    <t>Улуттук парламенттердеги аялдардын орундарынын үлүшү</t>
+  </si>
+  <si>
+    <t>Жергиликтүү өз алдынча башкаруу органдарындагы аялдардын орундарынын үлүшү*</t>
+  </si>
+  <si>
+    <t>Доля мест, занимаемых женщинами в местных органах власти*</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in local government*</t>
+  </si>
+  <si>
+    <t>*КР ШРӨБК маалыматтары боюнча</t>
+  </si>
+  <si>
+    <t>*по данным ЦКВПР КР</t>
+  </si>
+  <si>
+    <t>*according to the CCER of KR</t>
   </si>
 </sst>
 </file>
@@ -71,7 +89,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,14 +185,18 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,6 +221,24 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -227,7 +267,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -262,21 +302,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -574,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,15 +639,15 @@
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -609,15 +660,15 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1">
+    <row r="2" spans="1:19" s="1" customFormat="1">
       <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -630,7 +681,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -646,9 +697,9 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>0</v>
@@ -701,61 +752,119 @@
       <c r="R4" s="12">
         <v>2021</v>
       </c>
+      <c r="S4" s="12">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="1:19" s="18" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>25.6</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>25.6</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>25.6</v>
       </c>
-      <c r="G5" s="17">
-        <v>23.5</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="G5" s="16">
+        <v>23.9</v>
+      </c>
+      <c r="H5" s="16">
         <v>20.8</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>20.8</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>22.5</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>21.7</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>21.7</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>15.8</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <v>16.7</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="17">
         <v>15.8</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="17">
         <v>16.7</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="17">
         <v>16.7</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="17">
         <v>20.5</v>
+      </c>
+      <c r="S5" s="17">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="22" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="25">
+        <v>15.61</v>
+      </c>
+      <c r="N6" s="25">
+        <v>15.09</v>
+      </c>
+      <c r="O6" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="P6" s="25">
+        <v>15.16</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>14.98</v>
+      </c>
+      <c r="R6" s="25">
+        <v>31.55</v>
+      </c>
+      <c r="S6" s="25">
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="24" customFormat="1">
+      <c r="A7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/5.5.1.xlsx
+++ b/ru/downloads/data-excel/5.5.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Наименование показателей</t>
   </si>
@@ -62,22 +62,129 @@
     <t>Улуттук парламенттердеги аялдардын орундарынын үлүшү</t>
   </si>
   <si>
-    <t>Жергиликтүү өз алдынча башкаруу органдарындагы аялдардын орундарынын үлүшү*</t>
-  </si>
-  <si>
-    <t>Доля мест, занимаемых женщинами в местных органах власти*</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in local government*</t>
-  </si>
-  <si>
-    <t>*КР ШРӨБК маалыматтары боюнча</t>
-  </si>
-  <si>
-    <t>*по данным ЦКВПР КР</t>
-  </si>
-  <si>
-    <t>*according to the CCER of KR</t>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Жергиликтүү өз алдынча башкаруу органдарындагы аялдардын орундарынын үлүшү</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Доля мест, занимаемых женщинами в местных органах власти</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Proportion of seats held by women in local government</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>КР БШК маалыматтары боюнча</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>по данным ЦИК КР</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>according to the CEC of KR</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -89,7 +196,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +302,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -267,7 +394,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -293,12 +420,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -323,11 +444,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -625,22 +757,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="1" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -660,7 +789,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1">
+    <row r="2" spans="1:20" s="1" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -681,7 +810,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -697,7 +826,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -707,168 +836,198 @@
       <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="24">
         <v>2007</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="24">
         <v>2008</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="24">
         <v>2009</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="24">
         <v>2010</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="24">
         <v>2011</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="25">
         <v>2012</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="25">
         <v>2013</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="25">
         <v>2014</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="24">
         <v>2015</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="25">
         <v>2016</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="25">
         <v>2017</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="25">
         <v>2018</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="25">
         <v>2019</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="25">
         <v>2020</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="25">
         <v>2021</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="25">
         <v>2022</v>
       </c>
+      <c r="T4" s="26" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:20" s="16" customFormat="1" ht="27" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>25.6</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>25.6</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>25.6</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>23.9</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>20.8</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <v>20.8</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <v>22.5</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <v>21.7</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <v>21.7</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="14">
         <v>15.8</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <v>16.7</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="15">
         <v>15.8</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="15">
         <v>16.7</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="15">
         <v>16.7</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="15">
         <v>20.5</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="15">
         <v>21.1</v>
       </c>
+      <c r="T5" s="15">
+        <v>22.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" s="22" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:20" s="19" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="25">
+      <c r="E6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="22">
         <v>15.61</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="22">
         <v>15.09</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="22">
         <v>14.96</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="22">
         <v>15.16</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="22">
         <v>14.98</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="22">
         <v>31.55</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="22">
         <v>36.46</v>
       </c>
+      <c r="T6" s="22">
+        <v>37.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" s="24" customFormat="1">
-      <c r="A7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="23" t="s">
+    <row r="7" spans="1:20" s="21" customFormat="1">
+      <c r="A7" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="T4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>